--- a/Alex Bd/Project/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
+++ b/Alex Bd/Project/PERS_DESAP_NOLOCYLOCPOREDO_Df.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2981,7 +2981,7 @@
           <t>AGUASCALIENTES</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C134" t="n">
@@ -3000,7 +3000,7 @@
           <t>BAJA CALIFORNIA</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C135" t="n">
@@ -3019,7 +3019,7 @@
           <t>BAJA CALIFORNIA SUR</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C136" t="n">
@@ -3038,7 +3038,7 @@
           <t>CAMPECHE</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C137" t="n">
@@ -3057,7 +3057,7 @@
           <t>COAHUILA</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C138" t="n">
@@ -3076,7 +3076,7 @@
           <t>COLIMA</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C139" t="n">
@@ -3095,7 +3095,7 @@
           <t>CHIAPAS</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C140" t="n">
@@ -3114,7 +3114,7 @@
           <t>CHIHUAHUA</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C141" t="n">
@@ -3133,7 +3133,7 @@
           <t>CIUDAD DE MEXICO</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C142" t="n">
@@ -3152,7 +3152,7 @@
           <t>DURANGO</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C143" t="n">
@@ -3171,7 +3171,7 @@
           <t>GUANAJUATO</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C144" t="n">
@@ -3190,7 +3190,7 @@
           <t>GUERRERO</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C145" t="n">
@@ -3209,7 +3209,7 @@
           <t>HIDALGO</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C146" t="n">
@@ -3228,7 +3228,7 @@
           <t>JALISCO</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C147" t="n">
@@ -3247,7 +3247,7 @@
           <t>ESTADO DE MEXICO</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C148" t="n">
@@ -3266,7 +3266,7 @@
           <t xml:space="preserve">MICHOACAN </t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C149" t="n">
@@ -3285,7 +3285,7 @@
           <t>MORELOS</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C150" t="n">
@@ -3304,7 +3304,7 @@
           <t>NAYARIT</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C151" t="n">
@@ -3323,7 +3323,7 @@
           <t>NUEVO LEON</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C152" t="n">
@@ -3342,7 +3342,7 @@
           <t>OAXACA</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C153" t="n">
@@ -3361,7 +3361,7 @@
           <t>PUEBLA</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C154" t="n">
@@ -3380,7 +3380,7 @@
           <t xml:space="preserve">QUERETARO </t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C155" t="n">
@@ -3399,7 +3399,7 @@
           <t>QUINTANA ROO</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C156" t="n">
@@ -3418,7 +3418,7 @@
           <t>SAN LUIS POTOSI</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C157" t="n">
@@ -3437,7 +3437,7 @@
           <t>SINALOA</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C158" t="n">
@@ -3456,7 +3456,7 @@
           <t>SONORA</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C159" t="n">
@@ -3475,7 +3475,7 @@
           <t>TABASCO</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C160" t="n">
@@ -3494,7 +3494,7 @@
           <t>TAMAULIPAS</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C161" t="n">
@@ -3513,7 +3513,7 @@
           <t>TLAXCALA</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C162" t="n">
@@ -3532,7 +3532,7 @@
           <t xml:space="preserve">VERACRUZ </t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C163" t="n">
@@ -3551,7 +3551,7 @@
           <t>YUCATAN</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C164" t="n">
@@ -3570,7 +3570,7 @@
           <t>ZACATECAS</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C165" t="n">
@@ -3589,7 +3589,7 @@
           <t>SE DESCONOCE</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="2" t="n">
         <v>45080</v>
       </c>
       <c r="C166" t="n">
@@ -3599,6 +3599,7530 @@
         <v>122</v>
       </c>
       <c r="E166" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2071</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2949</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1198</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4</v>
+      </c>
+      <c r="E169" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C170" t="n">
+        <v>537</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3430</v>
+      </c>
+      <c r="D171" t="n">
+        <v>10</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2315</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2429</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C174" t="n">
+        <v>8527</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C175" t="n">
+        <v>7422</v>
+      </c>
+      <c r="D175" t="n">
+        <v>310</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5805</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7873</v>
+      </c>
+      <c r="D177" t="n">
+        <v>229</v>
+      </c>
+      <c r="E177" t="n">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4318</v>
+      </c>
+      <c r="D178" t="n">
+        <v>17</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C180" t="n">
+        <v>18276</v>
+      </c>
+      <c r="D180" t="n">
+        <v>21</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C181" t="n">
+        <v>22958</v>
+      </c>
+      <c r="D181" t="n">
+        <v>18</v>
+      </c>
+      <c r="E181" t="n">
+        <v>26025</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6236</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2869</v>
+      </c>
+      <c r="D183" t="n">
+        <v>5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2209</v>
+      </c>
+      <c r="D184" t="n">
+        <v>8</v>
+      </c>
+      <c r="E184" t="n">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C185" t="n">
+        <v>10143</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4</v>
+      </c>
+      <c r="E185" t="n">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1674</v>
+      </c>
+      <c r="D186" t="n">
+        <v>8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5955</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1556</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1337</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1889</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9772</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4711</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C193" t="n">
+        <v>385</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C194" t="n">
+        <v>13362</v>
+      </c>
+      <c r="D194" t="n">
+        <v>22</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C195" t="n">
+        <v>371</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8475</v>
+      </c>
+      <c r="D196" t="n">
+        <v>44</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2713</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4020</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C199" t="n">
+        <v>682</v>
+      </c>
+      <c r="D199" t="n">
+        <v>122</v>
+      </c>
+      <c r="E199" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2072</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2949</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1199</v>
+      </c>
+      <c r="D202" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C203" t="n">
+        <v>537</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C204" t="n">
+        <v>3430</v>
+      </c>
+      <c r="D204" t="n">
+        <v>10</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2315</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2429</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8527</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C208" t="n">
+        <v>7422</v>
+      </c>
+      <c r="D208" t="n">
+        <v>310</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5805</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1947</v>
+      </c>
+      <c r="D209" t="n">
+        <v>3</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C210" t="n">
+        <v>7873</v>
+      </c>
+      <c r="D210" t="n">
+        <v>229</v>
+      </c>
+      <c r="E210" t="n">
+        <v>8146</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4318</v>
+      </c>
+      <c r="D211" t="n">
+        <v>17</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1827</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C213" t="n">
+        <v>18276</v>
+      </c>
+      <c r="D213" t="n">
+        <v>21</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C214" t="n">
+        <v>22958</v>
+      </c>
+      <c r="D214" t="n">
+        <v>18</v>
+      </c>
+      <c r="E214" t="n">
+        <v>26026</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6236</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2869</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2209</v>
+      </c>
+      <c r="D217" t="n">
+        <v>8</v>
+      </c>
+      <c r="E217" t="n">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C218" t="n">
+        <v>10143</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4</v>
+      </c>
+      <c r="E218" t="n">
+        <v>7106</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1674</v>
+      </c>
+      <c r="D219" t="n">
+        <v>8</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5955</v>
+      </c>
+      <c r="D220" t="n">
+        <v>5</v>
+      </c>
+      <c r="E220" t="n">
+        <v>6523</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1556</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1337</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1889</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C224" t="n">
+        <v>9772</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4711</v>
+      </c>
+      <c r="D225" t="n">
+        <v>6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C226" t="n">
+        <v>385</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2</v>
+      </c>
+      <c r="E226" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C227" t="n">
+        <v>13363</v>
+      </c>
+      <c r="D227" t="n">
+        <v>22</v>
+      </c>
+      <c r="E227" t="n">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C228" t="n">
+        <v>371</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C229" t="n">
+        <v>8475</v>
+      </c>
+      <c r="D229" t="n">
+        <v>44</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2713</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4023</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C232" t="n">
+        <v>682</v>
+      </c>
+      <c r="D232" t="n">
+        <v>122</v>
+      </c>
+      <c r="E232" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2088</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2959</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1208</v>
+      </c>
+      <c r="D235" t="n">
+        <v>4</v>
+      </c>
+      <c r="E235" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C236" t="n">
+        <v>537</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2</v>
+      </c>
+      <c r="E236" t="n">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C237" t="n">
+        <v>3434</v>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2315</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2444</v>
+      </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C240" t="n">
+        <v>8531</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C241" t="n">
+        <v>7445</v>
+      </c>
+      <c r="D241" t="n">
+        <v>310</v>
+      </c>
+      <c r="E241" t="n">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C243" t="n">
+        <v>7887</v>
+      </c>
+      <c r="D243" t="n">
+        <v>229</v>
+      </c>
+      <c r="E243" t="n">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4319</v>
+      </c>
+      <c r="D244" t="n">
+        <v>17</v>
+      </c>
+      <c r="E244" t="n">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D245" t="n">
+        <v>5</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C246" t="n">
+        <v>18279</v>
+      </c>
+      <c r="D246" t="n">
+        <v>21</v>
+      </c>
+      <c r="E246" t="n">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C247" t="n">
+        <v>23012</v>
+      </c>
+      <c r="D247" t="n">
+        <v>18</v>
+      </c>
+      <c r="E247" t="n">
+        <v>26066</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C248" t="n">
+        <v>6261</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C249" t="n">
+        <v>2872</v>
+      </c>
+      <c r="D249" t="n">
+        <v>5</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C250" t="n">
+        <v>2228</v>
+      </c>
+      <c r="D250" t="n">
+        <v>8</v>
+      </c>
+      <c r="E250" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C251" t="n">
+        <v>10154</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4</v>
+      </c>
+      <c r="E251" t="n">
+        <v>7119</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D252" t="n">
+        <v>8</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C253" t="n">
+        <v>5967</v>
+      </c>
+      <c r="D253" t="n">
+        <v>5</v>
+      </c>
+      <c r="E253" t="n">
+        <v>6539</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1558</v>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1902</v>
+      </c>
+      <c r="D256" t="n">
+        <v>5</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C257" t="n">
+        <v>9784</v>
+      </c>
+      <c r="D257" t="n">
+        <v>5</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4713</v>
+      </c>
+      <c r="D258" t="n">
+        <v>6</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C259" t="n">
+        <v>385</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2</v>
+      </c>
+      <c r="E259" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C260" t="n">
+        <v>13364</v>
+      </c>
+      <c r="D260" t="n">
+        <v>22</v>
+      </c>
+      <c r="E260" t="n">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C261" t="n">
+        <v>374</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2</v>
+      </c>
+      <c r="E261" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C262" t="n">
+        <v>8511</v>
+      </c>
+      <c r="D262" t="n">
+        <v>46</v>
+      </c>
+      <c r="E262" t="n">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2713</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C264" t="n">
+        <v>4045</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C265" t="n">
+        <v>682</v>
+      </c>
+      <c r="D265" t="n">
+        <v>122</v>
+      </c>
+      <c r="E265" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2096</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2962</v>
+      </c>
+      <c r="D267" t="n">
+        <v>5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D268" t="n">
+        <v>4</v>
+      </c>
+      <c r="E268" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C269" t="n">
+        <v>537</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2</v>
+      </c>
+      <c r="E269" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C270" t="n">
+        <v>3434</v>
+      </c>
+      <c r="D270" t="n">
+        <v>10</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2315</v>
+      </c>
+      <c r="D271" t="n">
+        <v>4</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2446</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C273" t="n">
+        <v>8532</v>
+      </c>
+      <c r="D273" t="n">
+        <v>4</v>
+      </c>
+      <c r="E273" t="n">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C274" t="n">
+        <v>7450</v>
+      </c>
+      <c r="D274" t="n">
+        <v>310</v>
+      </c>
+      <c r="E274" t="n">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C276" t="n">
+        <v>7886</v>
+      </c>
+      <c r="D276" t="n">
+        <v>229</v>
+      </c>
+      <c r="E276" t="n">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C277" t="n">
+        <v>4323</v>
+      </c>
+      <c r="D277" t="n">
+        <v>17</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1834</v>
+      </c>
+      <c r="D278" t="n">
+        <v>5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C279" t="n">
+        <v>18280</v>
+      </c>
+      <c r="D279" t="n">
+        <v>21</v>
+      </c>
+      <c r="E279" t="n">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C280" t="n">
+        <v>23024</v>
+      </c>
+      <c r="D280" t="n">
+        <v>18</v>
+      </c>
+      <c r="E280" t="n">
+        <v>26076</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C281" t="n">
+        <v>6270</v>
+      </c>
+      <c r="D281" t="n">
+        <v>4</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2874</v>
+      </c>
+      <c r="D282" t="n">
+        <v>5</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2228</v>
+      </c>
+      <c r="D283" t="n">
+        <v>8</v>
+      </c>
+      <c r="E283" t="n">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C284" t="n">
+        <v>10166</v>
+      </c>
+      <c r="D284" t="n">
+        <v>4</v>
+      </c>
+      <c r="E284" t="n">
+        <v>7131</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D285" t="n">
+        <v>8</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C286" t="n">
+        <v>5968</v>
+      </c>
+      <c r="D286" t="n">
+        <v>5</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1561</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2</v>
+      </c>
+      <c r="E288" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D289" t="n">
+        <v>5</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C290" t="n">
+        <v>9789</v>
+      </c>
+      <c r="D290" t="n">
+        <v>5</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C291" t="n">
+        <v>4714</v>
+      </c>
+      <c r="D291" t="n">
+        <v>6</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C292" t="n">
+        <v>385</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2</v>
+      </c>
+      <c r="E292" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C293" t="n">
+        <v>13364</v>
+      </c>
+      <c r="D293" t="n">
+        <v>22</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6093</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C294" t="n">
+        <v>381</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2</v>
+      </c>
+      <c r="E294" t="n">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C295" t="n">
+        <v>8529</v>
+      </c>
+      <c r="D295" t="n">
+        <v>47</v>
+      </c>
+      <c r="E295" t="n">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C296" t="n">
+        <v>2720</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C297" t="n">
+        <v>4048</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C298" t="n">
+        <v>682</v>
+      </c>
+      <c r="D298" t="n">
+        <v>122</v>
+      </c>
+      <c r="E298" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C299" t="n">
+        <v>2102</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C300" t="n">
+        <v>2966</v>
+      </c>
+      <c r="D300" t="n">
+        <v>5</v>
+      </c>
+      <c r="E300" t="n">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1218</v>
+      </c>
+      <c r="D301" t="n">
+        <v>4</v>
+      </c>
+      <c r="E301" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C302" t="n">
+        <v>536</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2</v>
+      </c>
+      <c r="E302" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C303" t="n">
+        <v>3438</v>
+      </c>
+      <c r="D303" t="n">
+        <v>10</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C304" t="n">
+        <v>2317</v>
+      </c>
+      <c r="D304" t="n">
+        <v>4</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C305" t="n">
+        <v>2459</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E305" t="n">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C306" t="n">
+        <v>8533</v>
+      </c>
+      <c r="D306" t="n">
+        <v>4</v>
+      </c>
+      <c r="E306" t="n">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C307" t="n">
+        <v>7471</v>
+      </c>
+      <c r="D307" t="n">
+        <v>310</v>
+      </c>
+      <c r="E307" t="n">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1949</v>
+      </c>
+      <c r="D308" t="n">
+        <v>3</v>
+      </c>
+      <c r="E308" t="n">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C309" t="n">
+        <v>7886</v>
+      </c>
+      <c r="D309" t="n">
+        <v>229</v>
+      </c>
+      <c r="E309" t="n">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C310" t="n">
+        <v>4326</v>
+      </c>
+      <c r="D310" t="n">
+        <v>17</v>
+      </c>
+      <c r="E310" t="n">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1839</v>
+      </c>
+      <c r="D311" t="n">
+        <v>5</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C312" t="n">
+        <v>18283</v>
+      </c>
+      <c r="D312" t="n">
+        <v>21</v>
+      </c>
+      <c r="E312" t="n">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C313" t="n">
+        <v>23068</v>
+      </c>
+      <c r="D313" t="n">
+        <v>19</v>
+      </c>
+      <c r="E313" t="n">
+        <v>26114</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C314" t="n">
+        <v>6297</v>
+      </c>
+      <c r="D314" t="n">
+        <v>4</v>
+      </c>
+      <c r="E314" t="n">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C315" t="n">
+        <v>2879</v>
+      </c>
+      <c r="D315" t="n">
+        <v>5</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C316" t="n">
+        <v>2243</v>
+      </c>
+      <c r="D316" t="n">
+        <v>8</v>
+      </c>
+      <c r="E316" t="n">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C317" t="n">
+        <v>10186</v>
+      </c>
+      <c r="D317" t="n">
+        <v>4</v>
+      </c>
+      <c r="E317" t="n">
+        <v>7144</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D318" t="n">
+        <v>8</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C319" t="n">
+        <v>5972</v>
+      </c>
+      <c r="D319" t="n">
+        <v>5</v>
+      </c>
+      <c r="E319" t="n">
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1</v>
+      </c>
+      <c r="E320" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1339</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D322" t="n">
+        <v>5</v>
+      </c>
+      <c r="E322" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C323" t="n">
+        <v>9807</v>
+      </c>
+      <c r="D323" t="n">
+        <v>5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C324" t="n">
+        <v>4715</v>
+      </c>
+      <c r="D324" t="n">
+        <v>6</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C325" t="n">
+        <v>385</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C326" t="n">
+        <v>13382</v>
+      </c>
+      <c r="D326" t="n">
+        <v>22</v>
+      </c>
+      <c r="E326" t="n">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C327" t="n">
+        <v>391</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2</v>
+      </c>
+      <c r="E327" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C328" t="n">
+        <v>8536</v>
+      </c>
+      <c r="D328" t="n">
+        <v>47</v>
+      </c>
+      <c r="E328" t="n">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C329" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C330" t="n">
+        <v>4051</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C331" t="n">
+        <v>680</v>
+      </c>
+      <c r="D331" t="n">
+        <v>121</v>
+      </c>
+      <c r="E331" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C332" t="n">
+        <v>2105</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C333" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D333" t="n">
+        <v>5</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1220</v>
+      </c>
+      <c r="D334" t="n">
+        <v>4</v>
+      </c>
+      <c r="E334" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C335" t="n">
+        <v>537</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2</v>
+      </c>
+      <c r="E335" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C336" t="n">
+        <v>3441</v>
+      </c>
+      <c r="D336" t="n">
+        <v>10</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C337" t="n">
+        <v>2317</v>
+      </c>
+      <c r="D337" t="n">
+        <v>4</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C338" t="n">
+        <v>2464</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1</v>
+      </c>
+      <c r="E338" t="n">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C339" t="n">
+        <v>8533</v>
+      </c>
+      <c r="D339" t="n">
+        <v>4</v>
+      </c>
+      <c r="E339" t="n">
+        <v>5063</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C340" t="n">
+        <v>7484</v>
+      </c>
+      <c r="D340" t="n">
+        <v>310</v>
+      </c>
+      <c r="E340" t="n">
+        <v>5844</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1952</v>
+      </c>
+      <c r="D341" t="n">
+        <v>3</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C342" t="n">
+        <v>7886</v>
+      </c>
+      <c r="D342" t="n">
+        <v>229</v>
+      </c>
+      <c r="E342" t="n">
+        <v>8151</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C343" t="n">
+        <v>4331</v>
+      </c>
+      <c r="D343" t="n">
+        <v>17</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1844</v>
+      </c>
+      <c r="D344" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" t="n">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C345" t="n">
+        <v>18283</v>
+      </c>
+      <c r="D345" t="n">
+        <v>21</v>
+      </c>
+      <c r="E345" t="n">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C346" t="n">
+        <v>23079</v>
+      </c>
+      <c r="D346" t="n">
+        <v>19</v>
+      </c>
+      <c r="E346" t="n">
+        <v>26135</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C347" t="n">
+        <v>6299</v>
+      </c>
+      <c r="D347" t="n">
+        <v>4</v>
+      </c>
+      <c r="E347" t="n">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C348" t="n">
+        <v>2882</v>
+      </c>
+      <c r="D348" t="n">
+        <v>5</v>
+      </c>
+      <c r="E348" t="n">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C349" t="n">
+        <v>2251</v>
+      </c>
+      <c r="D349" t="n">
+        <v>8</v>
+      </c>
+      <c r="E349" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C350" t="n">
+        <v>10191</v>
+      </c>
+      <c r="D350" t="n">
+        <v>4</v>
+      </c>
+      <c r="E350" t="n">
+        <v>7147</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1675</v>
+      </c>
+      <c r="D351" t="n">
+        <v>8</v>
+      </c>
+      <c r="E351" t="n">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C352" t="n">
+        <v>5983</v>
+      </c>
+      <c r="D352" t="n">
+        <v>5</v>
+      </c>
+      <c r="E352" t="n">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1340</v>
+      </c>
+      <c r="D354" t="n">
+        <v>2</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D355" t="n">
+        <v>5</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C356" t="n">
+        <v>9813</v>
+      </c>
+      <c r="D356" t="n">
+        <v>5</v>
+      </c>
+      <c r="E356" t="n">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4718</v>
+      </c>
+      <c r="D357" t="n">
+        <v>6</v>
+      </c>
+      <c r="E357" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C358" t="n">
+        <v>385</v>
+      </c>
+      <c r="D358" t="n">
+        <v>2</v>
+      </c>
+      <c r="E358" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C359" t="n">
+        <v>13389</v>
+      </c>
+      <c r="D359" t="n">
+        <v>22</v>
+      </c>
+      <c r="E359" t="n">
+        <v>6101</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C360" t="n">
+        <v>393</v>
+      </c>
+      <c r="D360" t="n">
+        <v>2</v>
+      </c>
+      <c r="E360" t="n">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C361" t="n">
+        <v>8538</v>
+      </c>
+      <c r="D361" t="n">
+        <v>47</v>
+      </c>
+      <c r="E361" t="n">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C363" t="n">
+        <v>4052</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C364" t="n">
+        <v>680</v>
+      </c>
+      <c r="D364" t="n">
+        <v>121</v>
+      </c>
+      <c r="E364" t="n">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C365" t="n">
+        <v>2108</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2</v>
+      </c>
+      <c r="E365" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2974</v>
+      </c>
+      <c r="D366" t="n">
+        <v>5</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1222</v>
+      </c>
+      <c r="D367" t="n">
+        <v>4</v>
+      </c>
+      <c r="E367" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C368" t="n">
+        <v>537</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2</v>
+      </c>
+      <c r="E368" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C369" t="n">
+        <v>3444</v>
+      </c>
+      <c r="D369" t="n">
+        <v>10</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2319</v>
+      </c>
+      <c r="D370" t="n">
+        <v>4</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2466</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1</v>
+      </c>
+      <c r="E371" t="n">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C372" t="n">
+        <v>8535</v>
+      </c>
+      <c r="D372" t="n">
+        <v>4</v>
+      </c>
+      <c r="E372" t="n">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C373" t="n">
+        <v>7513</v>
+      </c>
+      <c r="D373" t="n">
+        <v>310</v>
+      </c>
+      <c r="E373" t="n">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1967</v>
+      </c>
+      <c r="D374" t="n">
+        <v>3</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C375" t="n">
+        <v>7887</v>
+      </c>
+      <c r="D375" t="n">
+        <v>228</v>
+      </c>
+      <c r="E375" t="n">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C376" t="n">
+        <v>4341</v>
+      </c>
+      <c r="D376" t="n">
+        <v>17</v>
+      </c>
+      <c r="E376" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D377" t="n">
+        <v>5</v>
+      </c>
+      <c r="E377" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C378" t="n">
+        <v>18286</v>
+      </c>
+      <c r="D378" t="n">
+        <v>21</v>
+      </c>
+      <c r="E378" t="n">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C379" t="n">
+        <v>23103</v>
+      </c>
+      <c r="D379" t="n">
+        <v>19</v>
+      </c>
+      <c r="E379" t="n">
+        <v>26156</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C380" t="n">
+        <v>6323</v>
+      </c>
+      <c r="D380" t="n">
+        <v>4</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C381" t="n">
+        <v>2891</v>
+      </c>
+      <c r="D381" t="n">
+        <v>5</v>
+      </c>
+      <c r="E381" t="n">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2255</v>
+      </c>
+      <c r="D382" t="n">
+        <v>8</v>
+      </c>
+      <c r="E382" t="n">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C383" t="n">
+        <v>10198</v>
+      </c>
+      <c r="D383" t="n">
+        <v>4</v>
+      </c>
+      <c r="E383" t="n">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1676</v>
+      </c>
+      <c r="D384" t="n">
+        <v>8</v>
+      </c>
+      <c r="E384" t="n">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C385" t="n">
+        <v>5987</v>
+      </c>
+      <c r="D385" t="n">
+        <v>5</v>
+      </c>
+      <c r="E385" t="n">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1342</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D388" t="n">
+        <v>5</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C389" t="n">
+        <v>9817</v>
+      </c>
+      <c r="D389" t="n">
+        <v>5</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C390" t="n">
+        <v>4720</v>
+      </c>
+      <c r="D390" t="n">
+        <v>6</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C391" t="n">
+        <v>385</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2</v>
+      </c>
+      <c r="E391" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C392" t="n">
+        <v>13414</v>
+      </c>
+      <c r="D392" t="n">
+        <v>22</v>
+      </c>
+      <c r="E392" t="n">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C393" t="n">
+        <v>405</v>
+      </c>
+      <c r="D393" t="n">
+        <v>2</v>
+      </c>
+      <c r="E393" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C394" t="n">
+        <v>8542</v>
+      </c>
+      <c r="D394" t="n">
+        <v>47</v>
+      </c>
+      <c r="E394" t="n">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C396" t="n">
+        <v>4062</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C397" t="n">
+        <v>679</v>
+      </c>
+      <c r="D397" t="n">
+        <v>121</v>
+      </c>
+      <c r="E397" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2108</v>
+      </c>
+      <c r="D398" t="n">
+        <v>2</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2974</v>
+      </c>
+      <c r="D399" t="n">
+        <v>5</v>
+      </c>
+      <c r="E399" t="n">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1224</v>
+      </c>
+      <c r="D400" t="n">
+        <v>4</v>
+      </c>
+      <c r="E400" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C401" t="n">
+        <v>537</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2</v>
+      </c>
+      <c r="E401" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C402" t="n">
+        <v>3444</v>
+      </c>
+      <c r="D402" t="n">
+        <v>10</v>
+      </c>
+      <c r="E402" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2319</v>
+      </c>
+      <c r="D403" t="n">
+        <v>4</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2466</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1</v>
+      </c>
+      <c r="E404" t="n">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C405" t="n">
+        <v>8535</v>
+      </c>
+      <c r="D405" t="n">
+        <v>4</v>
+      </c>
+      <c r="E405" t="n">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C406" t="n">
+        <v>7517</v>
+      </c>
+      <c r="D406" t="n">
+        <v>310</v>
+      </c>
+      <c r="E406" t="n">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1967</v>
+      </c>
+      <c r="D407" t="n">
+        <v>3</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C408" t="n">
+        <v>7887</v>
+      </c>
+      <c r="D408" t="n">
+        <v>228</v>
+      </c>
+      <c r="E408" t="n">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C409" t="n">
+        <v>4342</v>
+      </c>
+      <c r="D409" t="n">
+        <v>17</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1846</v>
+      </c>
+      <c r="D410" t="n">
+        <v>5</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C411" t="n">
+        <v>18286</v>
+      </c>
+      <c r="D411" t="n">
+        <v>21</v>
+      </c>
+      <c r="E411" t="n">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C412" t="n">
+        <v>23103</v>
+      </c>
+      <c r="D412" t="n">
+        <v>19</v>
+      </c>
+      <c r="E412" t="n">
+        <v>26157</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C413" t="n">
+        <v>6323</v>
+      </c>
+      <c r="D413" t="n">
+        <v>4</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2891</v>
+      </c>
+      <c r="D414" t="n">
+        <v>5</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2256</v>
+      </c>
+      <c r="D415" t="n">
+        <v>8</v>
+      </c>
+      <c r="E415" t="n">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C416" t="n">
+        <v>10198</v>
+      </c>
+      <c r="D416" t="n">
+        <v>4</v>
+      </c>
+      <c r="E416" t="n">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1676</v>
+      </c>
+      <c r="D417" t="n">
+        <v>8</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C418" t="n">
+        <v>5987</v>
+      </c>
+      <c r="D418" t="n">
+        <v>5</v>
+      </c>
+      <c r="E418" t="n">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C419" t="n">
+        <v>1565</v>
+      </c>
+      <c r="D419" t="n">
+        <v>1</v>
+      </c>
+      <c r="E419" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C420" t="n">
+        <v>1342</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2</v>
+      </c>
+      <c r="E420" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1913</v>
+      </c>
+      <c r="D421" t="n">
+        <v>5</v>
+      </c>
+      <c r="E421" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C422" t="n">
+        <v>9819</v>
+      </c>
+      <c r="D422" t="n">
+        <v>5</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2915</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C423" t="n">
+        <v>4721</v>
+      </c>
+      <c r="D423" t="n">
+        <v>6</v>
+      </c>
+      <c r="E423" t="n">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B424" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C424" t="n">
+        <v>385</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2</v>
+      </c>
+      <c r="E424" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B425" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C425" t="n">
+        <v>13414</v>
+      </c>
+      <c r="D425" t="n">
+        <v>22</v>
+      </c>
+      <c r="E425" t="n">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B426" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C426" t="n">
+        <v>405</v>
+      </c>
+      <c r="D426" t="n">
+        <v>2</v>
+      </c>
+      <c r="E426" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B427" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C427" t="n">
+        <v>8542</v>
+      </c>
+      <c r="D427" t="n">
+        <v>47</v>
+      </c>
+      <c r="E427" t="n">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B428" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
+      <c r="E428" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B429" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C429" t="n">
+        <v>4062</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1</v>
+      </c>
+      <c r="E429" t="n">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B430" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C430" t="n">
+        <v>679</v>
+      </c>
+      <c r="D430" t="n">
+        <v>121</v>
+      </c>
+      <c r="E430" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B431" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2112</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B432" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2993</v>
+      </c>
+      <c r="D432" t="n">
+        <v>5</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B433" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1241</v>
+      </c>
+      <c r="D433" t="n">
+        <v>4</v>
+      </c>
+      <c r="E433" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B434" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C434" t="n">
+        <v>540</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2</v>
+      </c>
+      <c r="E434" t="n">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B435" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C435" t="n">
+        <v>3445</v>
+      </c>
+      <c r="D435" t="n">
+        <v>10</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B436" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2320</v>
+      </c>
+      <c r="D436" t="n">
+        <v>4</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B437" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2487</v>
+      </c>
+      <c r="D437" t="n">
+        <v>1</v>
+      </c>
+      <c r="E437" t="n">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B438" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C438" t="n">
+        <v>8538</v>
+      </c>
+      <c r="D438" t="n">
+        <v>4</v>
+      </c>
+      <c r="E438" t="n">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B439" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C439" t="n">
+        <v>7547</v>
+      </c>
+      <c r="D439" t="n">
+        <v>310</v>
+      </c>
+      <c r="E439" t="n">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B440" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2030</v>
+      </c>
+      <c r="D440" t="n">
+        <v>6</v>
+      </c>
+      <c r="E440" t="n">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B441" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C441" t="n">
+        <v>7887</v>
+      </c>
+      <c r="D441" t="n">
+        <v>229</v>
+      </c>
+      <c r="E441" t="n">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B442" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C442" t="n">
+        <v>4367</v>
+      </c>
+      <c r="D442" t="n">
+        <v>17</v>
+      </c>
+      <c r="E442" t="n">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B443" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C443" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D443" t="n">
+        <v>5</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B444" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C444" t="n">
+        <v>18310</v>
+      </c>
+      <c r="D444" t="n">
+        <v>21</v>
+      </c>
+      <c r="E444" t="n">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B445" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C445" t="n">
+        <v>23156</v>
+      </c>
+      <c r="D445" t="n">
+        <v>19</v>
+      </c>
+      <c r="E445" t="n">
+        <v>26207</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B446" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C446" t="n">
+        <v>6368</v>
+      </c>
+      <c r="D446" t="n">
+        <v>4</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B447" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2895</v>
+      </c>
+      <c r="D447" t="n">
+        <v>5</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B448" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2260</v>
+      </c>
+      <c r="D448" t="n">
+        <v>8</v>
+      </c>
+      <c r="E448" t="n">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B449" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C449" t="n">
+        <v>10233</v>
+      </c>
+      <c r="D449" t="n">
+        <v>4</v>
+      </c>
+      <c r="E449" t="n">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B450" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1678</v>
+      </c>
+      <c r="D450" t="n">
+        <v>8</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B451" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C451" t="n">
+        <v>5992</v>
+      </c>
+      <c r="D451" t="n">
+        <v>5</v>
+      </c>
+      <c r="E451" t="n">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B452" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1568</v>
+      </c>
+      <c r="D452" t="n">
+        <v>1</v>
+      </c>
+      <c r="E452" t="n">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B453" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1344</v>
+      </c>
+      <c r="D453" t="n">
+        <v>2</v>
+      </c>
+      <c r="E453" t="n">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B454" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D454" t="n">
+        <v>5</v>
+      </c>
+      <c r="E454" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B455" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C455" t="n">
+        <v>9836</v>
+      </c>
+      <c r="D455" t="n">
+        <v>5</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B456" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C456" t="n">
+        <v>4730</v>
+      </c>
+      <c r="D456" t="n">
+        <v>6</v>
+      </c>
+      <c r="E456" t="n">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B457" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C457" t="n">
+        <v>385</v>
+      </c>
+      <c r="D457" t="n">
+        <v>2</v>
+      </c>
+      <c r="E457" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B458" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C458" t="n">
+        <v>13628</v>
+      </c>
+      <c r="D458" t="n">
+        <v>22</v>
+      </c>
+      <c r="E458" t="n">
+        <v>6122</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B459" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C459" t="n">
+        <v>435</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" t="n">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B460" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C460" t="n">
+        <v>8570</v>
+      </c>
+      <c r="D460" t="n">
+        <v>47</v>
+      </c>
+      <c r="E460" t="n">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B461" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C461" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
+      <c r="E461" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B462" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C462" t="n">
+        <v>4093</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1</v>
+      </c>
+      <c r="E462" t="n">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B463" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C463" t="n">
+        <v>682</v>
+      </c>
+      <c r="D463" t="n">
+        <v>121</v>
+      </c>
+      <c r="E463" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B464" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C464" t="n">
+        <v>2112</v>
+      </c>
+      <c r="D464" t="n">
+        <v>2</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B465" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C465" t="n">
+        <v>2995</v>
+      </c>
+      <c r="D465" t="n">
+        <v>5</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B466" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1242</v>
+      </c>
+      <c r="D466" t="n">
+        <v>4</v>
+      </c>
+      <c r="E466" t="n">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B467" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C467" t="n">
+        <v>544</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2</v>
+      </c>
+      <c r="E467" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B468" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C468" t="n">
+        <v>3451</v>
+      </c>
+      <c r="D468" t="n">
+        <v>10</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B469" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C469" t="n">
+        <v>2322</v>
+      </c>
+      <c r="D469" t="n">
+        <v>4</v>
+      </c>
+      <c r="E469" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B470" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2504</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1</v>
+      </c>
+      <c r="E470" t="n">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B471" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C471" t="n">
+        <v>8539</v>
+      </c>
+      <c r="D471" t="n">
+        <v>4</v>
+      </c>
+      <c r="E471" t="n">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B472" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C472" t="n">
+        <v>7564</v>
+      </c>
+      <c r="D472" t="n">
+        <v>310</v>
+      </c>
+      <c r="E472" t="n">
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B473" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C473" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D473" t="n">
+        <v>6</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B474" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C474" t="n">
+        <v>7888</v>
+      </c>
+      <c r="D474" t="n">
+        <v>229</v>
+      </c>
+      <c r="E474" t="n">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B475" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C475" t="n">
+        <v>4383</v>
+      </c>
+      <c r="D475" t="n">
+        <v>17</v>
+      </c>
+      <c r="E475" t="n">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B476" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1859</v>
+      </c>
+      <c r="D476" t="n">
+        <v>5</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B477" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C477" t="n">
+        <v>18312</v>
+      </c>
+      <c r="D477" t="n">
+        <v>21</v>
+      </c>
+      <c r="E477" t="n">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B478" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C478" t="n">
+        <v>23182</v>
+      </c>
+      <c r="D478" t="n">
+        <v>20</v>
+      </c>
+      <c r="E478" t="n">
+        <v>26236</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B479" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C479" t="n">
+        <v>6394</v>
+      </c>
+      <c r="D479" t="n">
+        <v>5</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B480" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C480" t="n">
+        <v>2897</v>
+      </c>
+      <c r="D480" t="n">
+        <v>5</v>
+      </c>
+      <c r="E480" t="n">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B481" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2263</v>
+      </c>
+      <c r="D481" t="n">
+        <v>8</v>
+      </c>
+      <c r="E481" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B482" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C482" t="n">
+        <v>10256</v>
+      </c>
+      <c r="D482" t="n">
+        <v>4</v>
+      </c>
+      <c r="E482" t="n">
+        <v>7189</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B483" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1679</v>
+      </c>
+      <c r="D483" t="n">
+        <v>8</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B484" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C484" t="n">
+        <v>5993</v>
+      </c>
+      <c r="D484" t="n">
+        <v>5</v>
+      </c>
+      <c r="E484" t="n">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B485" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1572</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1</v>
+      </c>
+      <c r="E485" t="n">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B486" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D486" t="n">
+        <v>2</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B487" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C487" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D487" t="n">
+        <v>5</v>
+      </c>
+      <c r="E487" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B488" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C488" t="n">
+        <v>9841</v>
+      </c>
+      <c r="D488" t="n">
+        <v>5</v>
+      </c>
+      <c r="E488" t="n">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B489" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C489" t="n">
+        <v>4731</v>
+      </c>
+      <c r="D489" t="n">
+        <v>6</v>
+      </c>
+      <c r="E489" t="n">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B490" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C490" t="n">
+        <v>385</v>
+      </c>
+      <c r="D490" t="n">
+        <v>2</v>
+      </c>
+      <c r="E490" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B491" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C491" t="n">
+        <v>13649</v>
+      </c>
+      <c r="D491" t="n">
+        <v>22</v>
+      </c>
+      <c r="E491" t="n">
+        <v>6128</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B492" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C492" t="n">
+        <v>441</v>
+      </c>
+      <c r="D492" t="n">
+        <v>2</v>
+      </c>
+      <c r="E492" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B493" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C493" t="n">
+        <v>8576</v>
+      </c>
+      <c r="D493" t="n">
+        <v>47</v>
+      </c>
+      <c r="E493" t="n">
+        <v>4530</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B494" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C494" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+      <c r="E494" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B495" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C495" t="n">
+        <v>4104</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1</v>
+      </c>
+      <c r="E495" t="n">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B496" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C496" t="n">
+        <v>683</v>
+      </c>
+      <c r="D496" t="n">
+        <v>121</v>
+      </c>
+      <c r="E496" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B497" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C497" t="n">
+        <v>2114</v>
+      </c>
+      <c r="D497" t="n">
+        <v>2</v>
+      </c>
+      <c r="E497" t="n">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B498" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C498" t="n">
+        <v>2999</v>
+      </c>
+      <c r="D498" t="n">
+        <v>5</v>
+      </c>
+      <c r="E498" t="n">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B499" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1245</v>
+      </c>
+      <c r="D499" t="n">
+        <v>4</v>
+      </c>
+      <c r="E499" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B500" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C500" t="n">
+        <v>546</v>
+      </c>
+      <c r="D500" t="n">
+        <v>2</v>
+      </c>
+      <c r="E500" t="n">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B501" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C501" t="n">
+        <v>3453</v>
+      </c>
+      <c r="D501" t="n">
+        <v>10</v>
+      </c>
+      <c r="E501" t="n">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B502" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C502" t="n">
+        <v>2323</v>
+      </c>
+      <c r="D502" t="n">
+        <v>4</v>
+      </c>
+      <c r="E502" t="n">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B503" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C503" t="n">
+        <v>2510</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1</v>
+      </c>
+      <c r="E503" t="n">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B504" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C504" t="n">
+        <v>8540</v>
+      </c>
+      <c r="D504" t="n">
+        <v>4</v>
+      </c>
+      <c r="E504" t="n">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B505" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C505" t="n">
+        <v>7577</v>
+      </c>
+      <c r="D505" t="n">
+        <v>310</v>
+      </c>
+      <c r="E505" t="n">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B506" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C506" t="n">
+        <v>2067</v>
+      </c>
+      <c r="D506" t="n">
+        <v>7</v>
+      </c>
+      <c r="E506" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B507" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C507" t="n">
+        <v>7891</v>
+      </c>
+      <c r="D507" t="n">
+        <v>229</v>
+      </c>
+      <c r="E507" t="n">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B508" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C508" t="n">
+        <v>4394</v>
+      </c>
+      <c r="D508" t="n">
+        <v>17</v>
+      </c>
+      <c r="E508" t="n">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B509" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D509" t="n">
+        <v>5</v>
+      </c>
+      <c r="E509" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B510" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C510" t="n">
+        <v>18313</v>
+      </c>
+      <c r="D510" t="n">
+        <v>21</v>
+      </c>
+      <c r="E510" t="n">
+        <v>5499</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B511" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C511" t="n">
+        <v>23223</v>
+      </c>
+      <c r="D511" t="n">
+        <v>20</v>
+      </c>
+      <c r="E511" t="n">
+        <v>26275</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B512" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C512" t="n">
+        <v>6414</v>
+      </c>
+      <c r="D512" t="n">
+        <v>5</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B513" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C513" t="n">
+        <v>2905</v>
+      </c>
+      <c r="D513" t="n">
+        <v>5</v>
+      </c>
+      <c r="E513" t="n">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B514" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C514" t="n">
+        <v>2267</v>
+      </c>
+      <c r="D514" t="n">
+        <v>8</v>
+      </c>
+      <c r="E514" t="n">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B515" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C515" t="n">
+        <v>10293</v>
+      </c>
+      <c r="D515" t="n">
+        <v>4</v>
+      </c>
+      <c r="E515" t="n">
+        <v>7209</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B516" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1680</v>
+      </c>
+      <c r="D516" t="n">
+        <v>8</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B517" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C517" t="n">
+        <v>5996</v>
+      </c>
+      <c r="D517" t="n">
+        <v>5</v>
+      </c>
+      <c r="E517" t="n">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B518" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1572</v>
+      </c>
+      <c r="D518" t="n">
+        <v>1</v>
+      </c>
+      <c r="E518" t="n">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B519" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1352</v>
+      </c>
+      <c r="D519" t="n">
+        <v>2</v>
+      </c>
+      <c r="E519" t="n">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B520" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1964</v>
+      </c>
+      <c r="D520" t="n">
+        <v>5</v>
+      </c>
+      <c r="E520" t="n">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B521" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C521" t="n">
+        <v>9846</v>
+      </c>
+      <c r="D521" t="n">
+        <v>5</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B522" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C522" t="n">
+        <v>4734</v>
+      </c>
+      <c r="D522" t="n">
+        <v>6</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B523" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C523" t="n">
+        <v>385</v>
+      </c>
+      <c r="D523" t="n">
+        <v>2</v>
+      </c>
+      <c r="E523" t="n">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B524" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C524" t="n">
+        <v>13675</v>
+      </c>
+      <c r="D524" t="n">
+        <v>22</v>
+      </c>
+      <c r="E524" t="n">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B525" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C525" t="n">
+        <v>464</v>
+      </c>
+      <c r="D525" t="n">
+        <v>2</v>
+      </c>
+      <c r="E525" t="n">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B526" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C526" t="n">
+        <v>8589</v>
+      </c>
+      <c r="D526" t="n">
+        <v>47</v>
+      </c>
+      <c r="E526" t="n">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B527" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C527" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B528" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C528" t="n">
+        <v>4126</v>
+      </c>
+      <c r="D528" t="n">
+        <v>1</v>
+      </c>
+      <c r="E528" t="n">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B529" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C529" t="n">
+        <v>685</v>
+      </c>
+      <c r="D529" t="n">
+        <v>121</v>
+      </c>
+      <c r="E529" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>AGUASCALIENTES</t>
+        </is>
+      </c>
+      <c r="B530" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C530" t="n">
+        <v>2114</v>
+      </c>
+      <c r="D530" t="n">
+        <v>1</v>
+      </c>
+      <c r="E530" t="n">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA</t>
+        </is>
+      </c>
+      <c r="B531" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C531" t="n">
+        <v>3013</v>
+      </c>
+      <c r="D531" t="n">
+        <v>5</v>
+      </c>
+      <c r="E531" t="n">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>BAJA CALIFORNIA SUR</t>
+        </is>
+      </c>
+      <c r="B532" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1235</v>
+      </c>
+      <c r="D532" t="n">
+        <v>4</v>
+      </c>
+      <c r="E532" t="n">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>CAMPECHE</t>
+        </is>
+      </c>
+      <c r="B533" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C533" t="n">
+        <v>545</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1</v>
+      </c>
+      <c r="E533" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>COAHUILA</t>
+        </is>
+      </c>
+      <c r="B534" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C534" t="n">
+        <v>3437</v>
+      </c>
+      <c r="D534" t="n">
+        <v>10</v>
+      </c>
+      <c r="E534" t="n">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>COLIMA</t>
+        </is>
+      </c>
+      <c r="B535" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C535" t="n">
+        <v>2309</v>
+      </c>
+      <c r="D535" t="n">
+        <v>3</v>
+      </c>
+      <c r="E535" t="n">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>CHIAPAS</t>
+        </is>
+      </c>
+      <c r="B536" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C536" t="n">
+        <v>2520</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1</v>
+      </c>
+      <c r="E536" t="n">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="B537" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C537" t="n">
+        <v>8539</v>
+      </c>
+      <c r="D537" t="n">
+        <v>4</v>
+      </c>
+      <c r="E537" t="n">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>CIUDAD DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B538" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C538" t="n">
+        <v>7717</v>
+      </c>
+      <c r="D538" t="n">
+        <v>309</v>
+      </c>
+      <c r="E538" t="n">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>DURANGO</t>
+        </is>
+      </c>
+      <c r="B539" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C539" t="n">
+        <v>2061</v>
+      </c>
+      <c r="D539" t="n">
+        <v>7</v>
+      </c>
+      <c r="E539" t="n">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>GUANAJUATO</t>
+        </is>
+      </c>
+      <c r="B540" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C540" t="n">
+        <v>7873</v>
+      </c>
+      <c r="D540" t="n">
+        <v>227</v>
+      </c>
+      <c r="E540" t="n">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>GUERRERO</t>
+        </is>
+      </c>
+      <c r="B541" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C541" t="n">
+        <v>4377</v>
+      </c>
+      <c r="D541" t="n">
+        <v>16</v>
+      </c>
+      <c r="E541" t="n">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>HIDALGO</t>
+        </is>
+      </c>
+      <c r="B542" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1861</v>
+      </c>
+      <c r="D542" t="n">
+        <v>5</v>
+      </c>
+      <c r="E542" t="n">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>JALISCO</t>
+        </is>
+      </c>
+      <c r="B543" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C543" t="n">
+        <v>18312</v>
+      </c>
+      <c r="D543" t="n">
+        <v>21</v>
+      </c>
+      <c r="E543" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>ESTADO DE MEXICO</t>
+        </is>
+      </c>
+      <c r="B544" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C544" t="n">
+        <v>23285</v>
+      </c>
+      <c r="D544" t="n">
+        <v>20</v>
+      </c>
+      <c r="E544" t="n">
+        <v>26295</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICHOACAN </t>
+        </is>
+      </c>
+      <c r="B545" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C545" t="n">
+        <v>6383</v>
+      </c>
+      <c r="D545" t="n">
+        <v>5</v>
+      </c>
+      <c r="E545" t="n">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>MORELOS</t>
+        </is>
+      </c>
+      <c r="B546" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C546" t="n">
+        <v>2893</v>
+      </c>
+      <c r="D546" t="n">
+        <v>5</v>
+      </c>
+      <c r="E546" t="n">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>NAYARIT</t>
+        </is>
+      </c>
+      <c r="B547" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C547" t="n">
+        <v>2228</v>
+      </c>
+      <c r="D547" t="n">
+        <v>8</v>
+      </c>
+      <c r="E547" t="n">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>NUEVO LEON</t>
+        </is>
+      </c>
+      <c r="B548" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C548" t="n">
+        <v>10297</v>
+      </c>
+      <c r="D548" t="n">
+        <v>4</v>
+      </c>
+      <c r="E548" t="n">
+        <v>7207</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>OAXACA</t>
+        </is>
+      </c>
+      <c r="B549" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1687</v>
+      </c>
+      <c r="D549" t="n">
+        <v>8</v>
+      </c>
+      <c r="E549" t="n">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>PUEBLA</t>
+        </is>
+      </c>
+      <c r="B550" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C550" t="n">
+        <v>5972</v>
+      </c>
+      <c r="D550" t="n">
+        <v>5</v>
+      </c>
+      <c r="E550" t="n">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">QUERETARO </t>
+        </is>
+      </c>
+      <c r="B551" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1572</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1</v>
+      </c>
+      <c r="E551" t="n">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>QUINTANA ROO</t>
+        </is>
+      </c>
+      <c r="B552" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1355</v>
+      </c>
+      <c r="D552" t="n">
+        <v>2</v>
+      </c>
+      <c r="E552" t="n">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>SAN LUIS POTOSI</t>
+        </is>
+      </c>
+      <c r="B553" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D553" t="n">
+        <v>4</v>
+      </c>
+      <c r="E553" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>SINALOA</t>
+        </is>
+      </c>
+      <c r="B554" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C554" t="n">
+        <v>9847</v>
+      </c>
+      <c r="D554" t="n">
+        <v>5</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>SONORA</t>
+        </is>
+      </c>
+      <c r="B555" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C555" t="n">
+        <v>4756</v>
+      </c>
+      <c r="D555" t="n">
+        <v>6</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>TABASCO</t>
+        </is>
+      </c>
+      <c r="B556" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C556" t="n">
+        <v>392</v>
+      </c>
+      <c r="D556" t="n">
+        <v>2</v>
+      </c>
+      <c r="E556" t="n">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>TAMAULIPAS</t>
+        </is>
+      </c>
+      <c r="B557" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C557" t="n">
+        <v>13681</v>
+      </c>
+      <c r="D557" t="n">
+        <v>22</v>
+      </c>
+      <c r="E557" t="n">
+        <v>6139</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>TLAXCALA</t>
+        </is>
+      </c>
+      <c r="B558" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C558" t="n">
+        <v>464</v>
+      </c>
+      <c r="D558" t="n">
+        <v>2</v>
+      </c>
+      <c r="E558" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VERACRUZ </t>
+        </is>
+      </c>
+      <c r="B559" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C559" t="n">
+        <v>8596</v>
+      </c>
+      <c r="D559" t="n">
+        <v>43</v>
+      </c>
+      <c r="E559" t="n">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>YUCATAN</t>
+        </is>
+      </c>
+      <c r="B560" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C560" t="n">
+        <v>2717</v>
+      </c>
+      <c r="D560" t="n">
+        <v>0</v>
+      </c>
+      <c r="E560" t="n">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>ZACATECAS</t>
+        </is>
+      </c>
+      <c r="B561" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C561" t="n">
+        <v>4099</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1</v>
+      </c>
+      <c r="E561" t="n">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>SE DESCONOCE</t>
+        </is>
+      </c>
+      <c r="B562" s="3" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C562" t="n">
+        <v>676</v>
+      </c>
+      <c r="D562" t="n">
+        <v>118</v>
+      </c>
+      <c r="E562" t="n">
         <v>319</v>
       </c>
     </row>
